--- a/output_additional_column/1940.xlsx
+++ b/output_additional_column/1940.xlsx
@@ -490,7 +490,7 @@
         <v>51141</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76710622195</v>
+        <v>44703.79032556199</v>
       </c>
     </row>
   </sheetData>
